--- a/KiCad_PCB/Riscduino_Debug_Rev1.3/Riscduino_Debug_Rev1.3.xlsx
+++ b/KiCad_PCB/Riscduino_Debug_Rev1.3/Riscduino_Debug_Rev1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workarea\VLSI\github\riscduino_board\KiCad_PCB\Riscduino_Debug_Rev1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1ED1188-83AC-4B73-8170-D4819A2CF56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9861101-67FE-4DA8-BD69-39D94C9DA711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Riscduino_Debug_Rev1 3'!$B$1:$H$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -210,9 +209,6 @@
     <t>DIP-8_W7.62mm_LongPads</t>
   </si>
   <si>
-    <t xml:space="preserve">23LC1024-I/P </t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -358,6 +354,9 @@
   </si>
   <si>
     <t>MICROMOD-Connector</t>
+  </si>
+  <si>
+    <t>23LC1024-I/P (8 pin socket)</t>
   </si>
 </sst>
 </file>
@@ -373,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,17 +441,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB35DBAC-1CE5-43B6-831B-E94BE2FBE148}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +751,7 @@
     <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -767,13 +775,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,11 +800,11 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>97</v>
+      <c r="A3" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -808,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="6">
         <v>8</v>
@@ -820,9 +828,9 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>30</v>
@@ -834,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="6">
         <v>6</v>
@@ -846,9 +854,9 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>49</v>
@@ -860,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="6">
         <v>10</v>
@@ -872,7 +880,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -892,7 +900,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -903,13 +911,13 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>98</v>
+      <c r="A8" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -919,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="6">
         <v>2</v>
@@ -931,11 +939,11 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -945,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6">
         <v>8</v>
@@ -957,21 +965,21 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="6">
         <v>3</v>
@@ -983,21 +991,21 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="6">
         <v>8</v>
@@ -1009,9 +1017,9 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
@@ -1031,7 +1039,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -1042,7 +1050,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
@@ -1051,13 +1059,13 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>88</v>
+      <c r="A15" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1083,11 +1091,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1113,11 +1121,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1143,21 +1151,21 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="G18" s="6">
         <f>E18</f>
@@ -1173,11 +1181,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1203,11 +1211,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1217,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
@@ -1228,21 +1236,21 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G21" s="6">
         <f>E21</f>
@@ -1258,11 +1266,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1290,7 +1298,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -1299,14 +1307,14 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>87</v>
+      <c r="A24" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="B24" s="2">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
@@ -1331,11 +1339,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="2">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1361,12 +1369,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2">
-        <v>32</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>28</v>
@@ -1375,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="6">
         <f>E26</f>
@@ -1393,7 +1401,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
@@ -1404,7 +1412,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
@@ -1417,13 +1425,13 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>86</v>
+      <c r="A29" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="B29" s="2">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1432,7 +1440,7 @@
       <c r="E29" s="2">
         <v>5</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="2">
@@ -1449,12 +1457,12 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>33</v>
@@ -1463,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="6">
         <f>E30</f>
@@ -1481,7 +1489,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
@@ -1490,14 +1498,14 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>85</v>
+      <c r="A32" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B32" s="2">
-        <v>30</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>21</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>39</v>
@@ -1506,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" s="6">
         <v>8</v>
@@ -1520,12 +1528,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="2">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>39</v>
@@ -1534,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="6">
         <f>E33</f>
@@ -1550,12 +1558,12 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="2">
-        <v>36</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>80</v>
+        <v>23</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>39</v>
@@ -1564,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="2">
         <f>E34</f>
@@ -1580,11 +1588,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="2">
-        <v>16</v>
-      </c>
-      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -1612,7 +1620,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
@@ -1623,9 +1631,9 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
-        <v>13</v>
-      </c>
-      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -1653,19 +1661,19 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
-        <v>23</v>
-      </c>
-      <c r="C38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38" s="6">
         <f>E38</f>
@@ -1683,19 +1691,19 @@
     <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
-        <v>24</v>
-      </c>
-      <c r="C39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G39" s="6">
         <f>E39</f>
@@ -1713,7 +1721,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
@@ -1728,19 +1736,19 @@
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
-        <v>27</v>
-      </c>
-      <c r="C41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G41" s="6">
         <f>E41</f>
@@ -1790,11 +1798,11 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="B45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
@@ -1804,7 +1812,7 @@
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>38</v>
@@ -1829,10 +1837,10 @@
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>25</v>
@@ -1841,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>7</v>
@@ -1854,10 +1862,10 @@
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>39</v>
@@ -1879,7 +1887,7 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
@@ -1900,7 +1908,7 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>46</v>
